--- a/target/classes/com/Ecolite_Web/Data/TestData.xlsx
+++ b/target/classes/com/Ecolite_Web/Data/TestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11880" windowHeight="3210" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10890" windowHeight="6090" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SupplierPayment" sheetId="1" r:id="rId1"/>
     <sheet name="StartPurchase" sheetId="2" r:id="rId2"/>
     <sheet name="StartSale" sheetId="3" r:id="rId3"/>
+    <sheet name="TC_002_VerifyCustomerName" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:B4"/>
+  <oleSize ref="A1:K18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>PaymentMode</t>
   </si>
@@ -83,6 +84,12 @@
   </si>
   <si>
     <t>16C16009</t>
+  </si>
+  <si>
+    <t>Chethan</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -502,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +560,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/Ecolite_Web/Data/TestData.xlsx
+++ b/target/classes/com/Ecolite_Web/Data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10890" windowHeight="6090" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="12480" windowHeight="8424" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SupplierPayment" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="StartSale" sheetId="3" r:id="rId3"/>
     <sheet name="TC_002_VerifyCustomerName" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1:K18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>PaymentMode</t>
   </si>
@@ -86,17 +86,23 @@
     <t>16C16009</t>
   </si>
   <si>
-    <t>Chethan</t>
-  </si>
-  <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>VEENA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +110,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,13 +457,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,10 +713,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,22 +1025,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="18.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -461,21 +1086,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -501,22 +1128,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="14.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -553,31 +1182,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5"/>
-    <row r="4" spans="1:5"/>
-    <row r="5" spans="1:5"/>
-    <row r="6" spans="1:5"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -591,10 +1218,11 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/target/classes/com/Ecolite_Web/Data/TestData.xlsx
+++ b/target/classes/com/Ecolite_Web/Data/TestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12480" windowHeight="8424" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="12480" windowHeight="8424" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SupplierPayment" sheetId="1" r:id="rId1"/>
     <sheet name="StartPurchase" sheetId="2" r:id="rId2"/>
     <sheet name="StartSale" sheetId="3" r:id="rId3"/>
     <sheet name="TC_002_VerifyCustomerName" sheetId="4" r:id="rId4"/>
+    <sheet name="ItemNames" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:K18"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>PaymentMode</t>
   </si>
@@ -90,6 +91,24 @@
   </si>
   <si>
     <t>VEENA</t>
+  </si>
+  <si>
+    <t>Itemnames</t>
+  </si>
+  <si>
+    <t>ItemNo</t>
+  </si>
+  <si>
+    <t>ROMSON FLATUS ADULT TUBE</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Arza 15mg Tab</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -99,8 +118,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,6 +127,104 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,12 +237,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,123 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +474,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,7 +520,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,15 +566,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -560,15 +579,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,130 +597,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,7 +1212,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1225,4 +1244,48 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="44.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>